--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/ThongKeSoLuongHVDangHoatDong.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/ThongKeSoLuongHVDangHoatDong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCC91AE-8CB7-4EC9-968B-F86591B497D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28366450-A4D2-45ED-A47C-BCA6C20103D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13A50527-B819-416F-9BFC-50CB53A46BAA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Số Lượng</t>
-  </si>
-  <si>
     <t>Tổng</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Từ 60</t>
   </si>
   <si>
-    <t>Chi Hội</t>
-  </si>
-  <si>
     <t>Dân Cư</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>Đảng Viên</t>
   </si>
   <si>
-    <t>Ưu Tú</t>
-  </si>
-  <si>
-    <t>HV Nồng Cốt</t>
-  </si>
-  <si>
     <t>Từ 40 Đến Dưới 60</t>
   </si>
   <si>
@@ -88,6 +76,95 @@
   </si>
   <si>
     <t>Độc lập- Tự do- hạnh phúc</t>
+  </si>
+  <si>
+    <t>Danh Dự</t>
+  </si>
+  <si>
+    <t>Hội Viên</t>
+  </si>
+  <si>
+    <t>Tôn Giáo</t>
+  </si>
+  <si>
+    <t>Nồng Cốt</t>
+  </si>
+  <si>
+    <t>Trình Độ Học Vấn</t>
+  </si>
+  <si>
+    <t>Cấp 1</t>
+  </si>
+  <si>
+    <t>Cấp 2</t>
+  </si>
+  <si>
+    <t>Cấp 3</t>
+  </si>
+  <si>
+    <t>Nông dân</t>
+  </si>
+  <si>
+    <t>Công nhân</t>
+  </si>
+  <si>
+    <t>Doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Công chức
+viên chức</t>
+  </si>
+  <si>
+    <t>Lao động
+ tự do</t>
+  </si>
+  <si>
+    <t>Học sinh
+sinh viên</t>
+  </si>
+  <si>
+    <t>Hưu trí</t>
+  </si>
+  <si>
+    <t>Gia đình thuộc diện</t>
+  </si>
+  <si>
+    <t>Hộ nghèo</t>
+  </si>
+  <si>
+    <t>Cận nghèo</t>
+  </si>
+  <si>
+    <t>Gia đình, 
+chính sách, 
+con liệt sĩ…</t>
+  </si>
+  <si>
+    <t>Thành phần 
+khác</t>
+  </si>
+  <si>
+    <t>Tham gia 
+cấp ủy Đảng</t>
+  </si>
+  <si>
+    <t>Tham gia
+ HĐND</t>
+  </si>
+  <si>
+    <t>Trình Độ Chính trị</t>
+  </si>
+  <si>
+    <t>Sơ cấp</t>
+  </si>
+  <si>
+    <t>Trung cấp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cao cấp</t>
+  </si>
+  <si>
+    <t>Cử nhân</t>
   </si>
 </sst>
 </file>
@@ -159,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -196,9 +273,73 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -212,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,29 +364,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,150 +735,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC36A0B-A5A1-4417-A349-50992902371D}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="29.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11" style="7" customWidth="1"/>
+    <col min="4" max="6" width="16.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+    </row>
+    <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+    </row>
+    <row r="4" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+    </row>
+    <row r="6" spans="1:34" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="M7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="Q7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
+  <mergeCells count="13">
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="T6:W6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A4:P4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="X6:AA6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
